--- a/natmiOut/OldD4/LR-pairs_lrc2p/Fn1-Tshr.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Fn1-Tshr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>16.8972428395816</v>
+        <v>24.721787</v>
       </c>
       <c r="H2">
-        <v>16.8972428395816</v>
+        <v>74.16536099999999</v>
       </c>
       <c r="I2">
-        <v>0.01075326293749338</v>
+        <v>0.01340847400407589</v>
       </c>
       <c r="J2">
-        <v>0.01075326293749338</v>
+        <v>0.01345828544885583</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.0694673901208549</v>
+        <v>0.1853783333333333</v>
       </c>
       <c r="N2">
-        <v>0.0694673901208549</v>
+        <v>0.5561349999999999</v>
       </c>
       <c r="O2">
-        <v>0.02497769656176403</v>
+        <v>0.05150040234182901</v>
       </c>
       <c r="P2">
-        <v>0.02497769656176403</v>
+        <v>0.06174910743679608</v>
       </c>
       <c r="Q2">
-        <v>1.173807360304037</v>
+        <v>4.582883671081666</v>
       </c>
       <c r="R2">
-        <v>1.173807360304037</v>
+        <v>41.24595303973499</v>
       </c>
       <c r="S2">
-        <v>0.0002685917387015729</v>
+        <v>0.0006905418059998636</v>
       </c>
       <c r="T2">
-        <v>0.0002685917387015729</v>
+        <v>0.0008310371140964678</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>16.8972428395816</v>
+        <v>24.721787</v>
       </c>
       <c r="H3">
-        <v>16.8972428395816</v>
+        <v>74.16536099999999</v>
       </c>
       <c r="I3">
-        <v>0.01075326293749338</v>
+        <v>0.01340847400407589</v>
       </c>
       <c r="J3">
-        <v>0.01075326293749338</v>
+        <v>0.01345828544885583</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.1495698006026</v>
+        <v>1.210201666666667</v>
       </c>
       <c r="N3">
-        <v>1.1495698006026</v>
+        <v>3.630605</v>
       </c>
       <c r="O3">
-        <v>0.4133393467937292</v>
+        <v>0.3362090468038446</v>
       </c>
       <c r="P3">
-        <v>0.4133393467937292</v>
+        <v>0.4031154633417589</v>
       </c>
       <c r="Q3">
-        <v>19.42456008183153</v>
+        <v>29.91834783037833</v>
       </c>
       <c r="R3">
-        <v>19.42456008183153</v>
+        <v>269.265130473405</v>
       </c>
       <c r="S3">
-        <v>0.00444474667848473</v>
+        <v>0.004508050264004486</v>
       </c>
       <c r="T3">
-        <v>0.00444474667848473</v>
+        <v>0.005425242974501168</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,55 +655,55 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>16.8972428395816</v>
+        <v>24.721787</v>
       </c>
       <c r="H4">
-        <v>16.8972428395816</v>
+        <v>74.16536099999999</v>
       </c>
       <c r="I4">
-        <v>0.01075326293749338</v>
+        <v>0.01340847400407589</v>
       </c>
       <c r="J4">
-        <v>0.01075326293749338</v>
+        <v>0.01345828544885583</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.226787560066387</v>
+        <v>0.167083</v>
       </c>
       <c r="N4">
-        <v>0.226787560066387</v>
+        <v>0.5012489999999999</v>
       </c>
       <c r="O4">
-        <v>0.08154374087562649</v>
+        <v>0.04641773161811331</v>
       </c>
       <c r="P4">
-        <v>0.08154374087562649</v>
+        <v>0.05565497289972147</v>
       </c>
       <c r="Q4">
-        <v>3.83208447543794</v>
+        <v>4.130590337320998</v>
       </c>
       <c r="R4">
-        <v>3.83208447543794</v>
+        <v>37.17531303588899</v>
       </c>
       <c r="S4">
-        <v>0.0008768612865424382</v>
+        <v>0.0006223909477296441</v>
       </c>
       <c r="T4">
-        <v>0.0008768612865424382</v>
+        <v>0.0007490205119327868</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>16.8972428395816</v>
+        <v>24.721787</v>
       </c>
       <c r="H5">
-        <v>16.8972428395816</v>
+        <v>74.16536099999999</v>
       </c>
       <c r="I5">
-        <v>0.01075326293749338</v>
+        <v>0.01340847400407589</v>
       </c>
       <c r="J5">
-        <v>0.01075326293749338</v>
+        <v>0.01345828544885583</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.33535204624099</v>
+        <v>0.2445996666666667</v>
       </c>
       <c r="N5">
-        <v>1.33535204624099</v>
+        <v>0.7337990000000001</v>
       </c>
       <c r="O5">
-        <v>0.4801392157688803</v>
+        <v>0.06795282393309501</v>
       </c>
       <c r="P5">
-        <v>0.4801392157688803</v>
+        <v>0.08147560086672037</v>
       </c>
       <c r="Q5">
-        <v>22.56376780166621</v>
+        <v>6.046940859604333</v>
       </c>
       <c r="R5">
-        <v>22.56376780166621</v>
+        <v>54.422467736439</v>
       </c>
       <c r="S5">
-        <v>0.005163063233764637</v>
+        <v>0.0009111436732104507</v>
       </c>
       <c r="T5">
-        <v>0.005163063233764637</v>
+        <v>0.001096521893581368</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1339.72205469232</v>
+        <v>24.721787</v>
       </c>
       <c r="H6">
-        <v>1339.72205469232</v>
+        <v>74.16536099999999</v>
       </c>
       <c r="I6">
-        <v>0.8525878247733181</v>
+        <v>0.01340847400407589</v>
       </c>
       <c r="J6">
-        <v>0.8525878247733181</v>
+        <v>0.01345828544885583</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.0694673901208549</v>
+        <v>1.7922885</v>
       </c>
       <c r="N6">
-        <v>0.0694673901208549</v>
+        <v>3.584577</v>
       </c>
       <c r="O6">
-        <v>0.02497769656176403</v>
+        <v>0.4979199953031181</v>
       </c>
       <c r="P6">
-        <v>0.02497769656176403</v>
+        <v>0.3980048554550032</v>
       </c>
       <c r="Q6">
-        <v>93.06699462682469</v>
+        <v>44.30857453954949</v>
       </c>
       <c r="R6">
-        <v>93.06699462682469</v>
+        <v>265.851447237297</v>
       </c>
       <c r="S6">
-        <v>0.02129567997944238</v>
+        <v>0.006676347313131451</v>
       </c>
       <c r="T6">
-        <v>0.02129567997944238</v>
+        <v>0.005356462954744037</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,55 +841,55 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1339.72205469232</v>
+        <v>1458.280985666667</v>
       </c>
       <c r="H7">
-        <v>1339.72205469232</v>
+        <v>4374.842957</v>
       </c>
       <c r="I7">
-        <v>0.8525878247733181</v>
+        <v>0.7909348416823457</v>
       </c>
       <c r="J7">
-        <v>0.8525878247733181</v>
+        <v>0.7938731034993884</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.1495698006026</v>
+        <v>0.1853783333333333</v>
       </c>
       <c r="N7">
-        <v>1.1495698006026</v>
+        <v>0.5561349999999999</v>
       </c>
       <c r="O7">
-        <v>0.4133393467937292</v>
+        <v>0.05150040234182901</v>
       </c>
       <c r="P7">
-        <v>0.4133393467937292</v>
+        <v>0.06174910743679608</v>
       </c>
       <c r="Q7">
-        <v>1540.104015275556</v>
+        <v>270.3336986545772</v>
       </c>
       <c r="R7">
-        <v>1540.104015275556</v>
+        <v>2433.003287891195</v>
       </c>
       <c r="S7">
-        <v>0.3524080945760897</v>
+        <v>0.04073346257281164</v>
       </c>
       <c r="T7">
-        <v>0.3524080945760897</v>
+        <v>0.04902095555916647</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,55 +903,55 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1339.72205469232</v>
+        <v>1458.280985666667</v>
       </c>
       <c r="H8">
-        <v>1339.72205469232</v>
+        <v>4374.842957</v>
       </c>
       <c r="I8">
-        <v>0.8525878247733181</v>
+        <v>0.7909348416823457</v>
       </c>
       <c r="J8">
-        <v>0.8525878247733181</v>
+        <v>0.7938731034993884</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.226787560066387</v>
+        <v>1.210201666666667</v>
       </c>
       <c r="N8">
-        <v>0.226787560066387</v>
+        <v>3.630605</v>
       </c>
       <c r="O8">
-        <v>0.08154374087562649</v>
+        <v>0.3362090468038446</v>
       </c>
       <c r="P8">
-        <v>0.08154374087562649</v>
+        <v>0.4031154633417589</v>
       </c>
       <c r="Q8">
-        <v>303.8322959507979</v>
+        <v>1764.814079322109</v>
       </c>
       <c r="R8">
-        <v>303.8322959507979</v>
+        <v>15883.32671389898</v>
       </c>
       <c r="S8">
-        <v>0.06952320065702949</v>
+        <v>0.2659194492059712</v>
       </c>
       <c r="T8">
-        <v>0.06952320065702949</v>
+        <v>0.320022523951716</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1339.72205469232</v>
+        <v>1458.280985666667</v>
       </c>
       <c r="H9">
-        <v>1339.72205469232</v>
+        <v>4374.842957</v>
       </c>
       <c r="I9">
-        <v>0.8525878247733181</v>
+        <v>0.7909348416823457</v>
       </c>
       <c r="J9">
-        <v>0.8525878247733181</v>
+        <v>0.7938731034993884</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>1.33535204624099</v>
+        <v>0.167083</v>
       </c>
       <c r="N9">
-        <v>1.33535204624099</v>
+        <v>0.5012489999999999</v>
       </c>
       <c r="O9">
-        <v>0.4801392157688803</v>
+        <v>0.04641773161811331</v>
       </c>
       <c r="P9">
-        <v>0.4801392157688803</v>
+        <v>0.05565497289972147</v>
       </c>
       <c r="Q9">
-        <v>1789.000587127573</v>
+        <v>243.6539619281436</v>
       </c>
       <c r="R9">
-        <v>1789.000587127573</v>
+        <v>2192.885657353293</v>
       </c>
       <c r="S9">
-        <v>0.4093608495607565</v>
+        <v>0.03671340120862607</v>
       </c>
       <c r="T9">
-        <v>0.4093608495607565</v>
+        <v>0.04418298606107624</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>54.8493693618876</v>
+        <v>1458.280985666667</v>
       </c>
       <c r="H10">
-        <v>54.8493693618876</v>
+        <v>4374.842957</v>
       </c>
       <c r="I10">
-        <v>0.03490567640552861</v>
+        <v>0.7909348416823457</v>
       </c>
       <c r="J10">
-        <v>0.03490567640552861</v>
+        <v>0.7938731034993884</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.0694673901208549</v>
+        <v>0.2445996666666667</v>
       </c>
       <c r="N10">
-        <v>0.0694673901208549</v>
+        <v>0.7337990000000001</v>
       </c>
       <c r="O10">
-        <v>0.02497769656176403</v>
+        <v>0.06795282393309501</v>
       </c>
       <c r="P10">
-        <v>0.02497769656176403</v>
+        <v>0.08147560086672037</v>
       </c>
       <c r="Q10">
-        <v>3.810242539345112</v>
+        <v>356.6950430004048</v>
       </c>
       <c r="R10">
-        <v>3.810242539345112</v>
+        <v>3210.255387003643</v>
       </c>
       <c r="S10">
-        <v>0.0008718633935404196</v>
+        <v>0.05374625603939082</v>
       </c>
       <c r="T10">
-        <v>0.0008718633935404196</v>
+        <v>0.06468128811954077</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,55 +1089,55 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>54.8493693618876</v>
+        <v>1458.280985666667</v>
       </c>
       <c r="H11">
-        <v>54.8493693618876</v>
+        <v>4374.842957</v>
       </c>
       <c r="I11">
-        <v>0.03490567640552861</v>
+        <v>0.7909348416823457</v>
       </c>
       <c r="J11">
-        <v>0.03490567640552861</v>
+        <v>0.7938731034993884</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.1495698006026</v>
+        <v>1.7922885</v>
       </c>
       <c r="N11">
-        <v>1.1495698006026</v>
+        <v>3.584577</v>
       </c>
       <c r="O11">
-        <v>0.4133393467937292</v>
+        <v>0.4979199953031181</v>
       </c>
       <c r="P11">
-        <v>0.4133393467937292</v>
+        <v>0.3980048554550032</v>
       </c>
       <c r="Q11">
-        <v>63.05317860052349</v>
+        <v>2613.660240379031</v>
       </c>
       <c r="R11">
-        <v>63.05317860052349</v>
+        <v>15681.96144227419</v>
       </c>
       <c r="S11">
-        <v>0.01442788948485448</v>
+        <v>0.3938222726555461</v>
       </c>
       <c r="T11">
-        <v>0.01442788948485448</v>
+        <v>0.3159653498078889</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,55 +1151,55 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>54.8493693618876</v>
+        <v>60.09979000000001</v>
       </c>
       <c r="H12">
-        <v>54.8493693618876</v>
+        <v>180.29937</v>
       </c>
       <c r="I12">
-        <v>0.03490567640552861</v>
+        <v>0.03259661091107292</v>
       </c>
       <c r="J12">
-        <v>0.03490567640552861</v>
+        <v>0.03271770480169137</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.226787560066387</v>
+        <v>0.1853783333333333</v>
       </c>
       <c r="N12">
-        <v>0.226787560066387</v>
+        <v>0.5561349999999999</v>
       </c>
       <c r="O12">
-        <v>0.08154374087562649</v>
+        <v>0.05150040234182901</v>
       </c>
       <c r="P12">
-        <v>0.08154374087562649</v>
+        <v>0.06174910743679608</v>
       </c>
       <c r="Q12">
-        <v>12.43915464876253</v>
+        <v>11.14119890388333</v>
       </c>
       <c r="R12">
-        <v>12.43915464876253</v>
+        <v>100.27079013495</v>
       </c>
       <c r="S12">
-        <v>0.002846339431900894</v>
+        <v>0.001678738576900309</v>
       </c>
       <c r="T12">
-        <v>0.002846339431900894</v>
+        <v>0.002020289068885019</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>54.8493693618876</v>
+        <v>60.09979000000001</v>
       </c>
       <c r="H13">
-        <v>54.8493693618876</v>
+        <v>180.29937</v>
       </c>
       <c r="I13">
-        <v>0.03490567640552861</v>
+        <v>0.03259661091107292</v>
       </c>
       <c r="J13">
-        <v>0.03490567640552861</v>
+        <v>0.03271770480169137</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.33535204624099</v>
+        <v>1.210201666666667</v>
       </c>
       <c r="N13">
-        <v>1.33535204624099</v>
+        <v>3.630605</v>
       </c>
       <c r="O13">
-        <v>0.4801392157688803</v>
+        <v>0.3362090468038446</v>
       </c>
       <c r="P13">
-        <v>0.4801392157688803</v>
+        <v>0.4031154633417589</v>
       </c>
       <c r="Q13">
-        <v>73.24321761242447</v>
+        <v>72.73286602431666</v>
       </c>
       <c r="R13">
-        <v>73.24321761242447</v>
+        <v>654.5957942188501</v>
       </c>
       <c r="S13">
-        <v>0.01675958409523282</v>
+        <v>0.01095927548344763</v>
       </c>
       <c r="T13">
-        <v>0.01675958409523282</v>
+        <v>0.0131890127306127</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,122 +1275,122 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>139.42070551673</v>
+        <v>60.09979000000001</v>
       </c>
       <c r="H14">
-        <v>139.42070551673</v>
+        <v>180.29937</v>
       </c>
       <c r="I14">
-        <v>0.0887261619890026</v>
+        <v>0.03259661091107292</v>
       </c>
       <c r="J14">
-        <v>0.0887261619890026</v>
+        <v>0.03271770480169137</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.0694673901208549</v>
+        <v>0.167083</v>
       </c>
       <c r="N14">
-        <v>0.0694673901208549</v>
+        <v>0.5012489999999999</v>
       </c>
       <c r="O14">
-        <v>0.02497769656176403</v>
+        <v>0.04641773161811331</v>
       </c>
       <c r="P14">
-        <v>0.02497769656176403</v>
+        <v>0.05565497289972147</v>
       </c>
       <c r="Q14">
-        <v>9.68519254105551</v>
+        <v>10.04165321257</v>
       </c>
       <c r="R14">
-        <v>9.68519254105551</v>
+        <v>90.37487891312999</v>
       </c>
       <c r="S14">
-        <v>0.002216175151251228</v>
+        <v>0.001513060736930247</v>
       </c>
       <c r="T14">
-        <v>0.002216175151251228</v>
+        <v>0.00182090297407922</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>139.42070551673</v>
+        <v>60.09979000000001</v>
       </c>
       <c r="H15">
-        <v>139.42070551673</v>
+        <v>180.29937</v>
       </c>
       <c r="I15">
-        <v>0.0887261619890026</v>
+        <v>0.03259661091107292</v>
       </c>
       <c r="J15">
-        <v>0.0887261619890026</v>
+        <v>0.03271770480169137</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.1495698006026</v>
+        <v>0.2445996666666667</v>
       </c>
       <c r="N15">
-        <v>1.1495698006026</v>
+        <v>0.7337990000000001</v>
       </c>
       <c r="O15">
-        <v>0.4133393467937292</v>
+        <v>0.06795282393309501</v>
       </c>
       <c r="P15">
-        <v>0.4133393467937292</v>
+        <v>0.08147560086672037</v>
       </c>
       <c r="Q15">
-        <v>160.2738326407411</v>
+        <v>14.70038860073667</v>
       </c>
       <c r="R15">
-        <v>160.2738326407411</v>
+        <v>132.30349740663</v>
       </c>
       <c r="S15">
-        <v>0.03667401384004894</v>
+        <v>0.002215031762055742</v>
       </c>
       <c r="T15">
-        <v>0.03667401384004894</v>
+        <v>0.002665694657697786</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,55 +1399,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>139.42070551673</v>
+        <v>60.09979000000001</v>
       </c>
       <c r="H16">
-        <v>139.42070551673</v>
+        <v>180.29937</v>
       </c>
       <c r="I16">
-        <v>0.0887261619890026</v>
+        <v>0.03259661091107292</v>
       </c>
       <c r="J16">
-        <v>0.0887261619890026</v>
+        <v>0.03271770480169137</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.226787560066387</v>
+        <v>1.7922885</v>
       </c>
       <c r="N16">
-        <v>0.226787560066387</v>
+        <v>3.584577</v>
       </c>
       <c r="O16">
-        <v>0.08154374087562649</v>
+        <v>0.4979199953031181</v>
       </c>
       <c r="P16">
-        <v>0.08154374087562649</v>
+        <v>0.3980048554550032</v>
       </c>
       <c r="Q16">
-        <v>31.61888162687346</v>
+        <v>107.716162469415</v>
       </c>
       <c r="R16">
-        <v>31.61888162687346</v>
+        <v>646.29697481649</v>
       </c>
       <c r="S16">
-        <v>0.007235063162120089</v>
+        <v>0.016230504351739</v>
       </c>
       <c r="T16">
-        <v>0.007235063162120089</v>
+        <v>0.01302180537041664</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,60 +1461,60 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>139.42070551673</v>
+        <v>280.168911</v>
       </c>
       <c r="H17">
-        <v>139.42070551673</v>
+        <v>840.5067330000001</v>
       </c>
       <c r="I17">
-        <v>0.0887261619890026</v>
+        <v>0.1519565539454633</v>
       </c>
       <c r="J17">
-        <v>0.0887261619890026</v>
+        <v>0.152521060800867</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.33535204624099</v>
+        <v>0.1853783333333333</v>
       </c>
       <c r="N17">
-        <v>1.33535204624099</v>
+        <v>0.5561349999999999</v>
       </c>
       <c r="O17">
-        <v>0.4801392157688803</v>
+        <v>0.05150040234182901</v>
       </c>
       <c r="P17">
-        <v>0.4801392157688803</v>
+        <v>0.06174910743679608</v>
       </c>
       <c r="Q17">
-        <v>186.1757244001279</v>
+        <v>51.937245772995</v>
       </c>
       <c r="R17">
-        <v>186.1757244001279</v>
+        <v>467.435211956955</v>
       </c>
       <c r="S17">
-        <v>0.04260090983558235</v>
+        <v>0.007825823666669207</v>
       </c>
       <c r="T17">
-        <v>0.04260090983558235</v>
+        <v>0.009418039369766845</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,60 +1523,60 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>20.4702174927483</v>
+        <v>280.168911</v>
       </c>
       <c r="H18">
-        <v>20.4702174927483</v>
+        <v>840.5067330000001</v>
       </c>
       <c r="I18">
-        <v>0.01302707389465733</v>
+        <v>0.1519565539454633</v>
       </c>
       <c r="J18">
-        <v>0.01302707389465733</v>
+        <v>0.152521060800867</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.0694673901208549</v>
+        <v>1.210201666666667</v>
       </c>
       <c r="N18">
-        <v>0.0694673901208549</v>
+        <v>3.630605</v>
       </c>
       <c r="O18">
-        <v>0.02497769656176403</v>
+        <v>0.3362090468038446</v>
       </c>
       <c r="P18">
-        <v>0.02497769656176403</v>
+        <v>0.4031154633417589</v>
       </c>
       <c r="Q18">
-        <v>1.422012584427494</v>
+        <v>339.060883040385</v>
       </c>
       <c r="R18">
-        <v>1.422012584427494</v>
+        <v>3051.547947363465</v>
       </c>
       <c r="S18">
-        <v>0.0003253862988284282</v>
+        <v>0.05108916815760122</v>
       </c>
       <c r="T18">
-        <v>0.0003253862988284282</v>
+        <v>0.06148359809411808</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1585,60 +1585,60 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>20.4702174927483</v>
+        <v>280.168911</v>
       </c>
       <c r="H19">
-        <v>20.4702174927483</v>
+        <v>840.5067330000001</v>
       </c>
       <c r="I19">
-        <v>0.01302707389465733</v>
+        <v>0.1519565539454633</v>
       </c>
       <c r="J19">
-        <v>0.01302707389465733</v>
+        <v>0.152521060800867</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>1.1495698006026</v>
+        <v>0.167083</v>
       </c>
       <c r="N19">
-        <v>1.1495698006026</v>
+        <v>0.5012489999999999</v>
       </c>
       <c r="O19">
-        <v>0.4133393467937292</v>
+        <v>0.04641773161811331</v>
       </c>
       <c r="P19">
-        <v>0.4133393467937292</v>
+        <v>0.05565497289972147</v>
       </c>
       <c r="Q19">
-        <v>23.53194384143052</v>
+        <v>46.811462156613</v>
       </c>
       <c r="R19">
-        <v>23.53194384143052</v>
+        <v>421.303159409517</v>
       </c>
       <c r="S19">
-        <v>0.005384602214251301</v>
+        <v>0.007053478538653875</v>
       </c>
       <c r="T19">
-        <v>0.005384602214251301</v>
+        <v>0.008488555505509025</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1650,57 +1650,57 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>20.4702174927483</v>
+        <v>280.168911</v>
       </c>
       <c r="H20">
-        <v>20.4702174927483</v>
+        <v>840.5067330000001</v>
       </c>
       <c r="I20">
-        <v>0.01302707389465733</v>
+        <v>0.1519565539454633</v>
       </c>
       <c r="J20">
-        <v>0.01302707389465733</v>
+        <v>0.152521060800867</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.226787560066387</v>
+        <v>0.2445996666666667</v>
       </c>
       <c r="N20">
-        <v>0.226787560066387</v>
+        <v>0.7337990000000001</v>
       </c>
       <c r="O20">
-        <v>0.08154374087562649</v>
+        <v>0.06795282393309501</v>
       </c>
       <c r="P20">
-        <v>0.08154374087562649</v>
+        <v>0.08147560086672037</v>
       </c>
       <c r="Q20">
-        <v>4.642390679208662</v>
+        <v>68.52922224096301</v>
       </c>
       <c r="R20">
-        <v>4.642390679208662</v>
+        <v>616.7630001686671</v>
       </c>
       <c r="S20">
-        <v>0.001062276338033576</v>
+        <v>0.01032587695573593</v>
       </c>
       <c r="T20">
-        <v>0.001062276338033576</v>
+        <v>0.01242674507358023</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1712,52 +1712,362 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>20.4702174927483</v>
+        <v>280.168911</v>
       </c>
       <c r="H21">
-        <v>20.4702174927483</v>
+        <v>840.5067330000001</v>
       </c>
       <c r="I21">
-        <v>0.01302707389465733</v>
+        <v>0.1519565539454633</v>
       </c>
       <c r="J21">
-        <v>0.01302707389465733</v>
+        <v>0.152521060800867</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.33535204624099</v>
+        <v>1.7922885</v>
       </c>
       <c r="N21">
-        <v>1.33535204624099</v>
+        <v>3.584577</v>
       </c>
       <c r="O21">
-        <v>0.4801392157688803</v>
+        <v>0.4979199953031181</v>
       </c>
       <c r="P21">
-        <v>0.4801392157688803</v>
+        <v>0.3980048554550032</v>
       </c>
       <c r="Q21">
-        <v>27.33494681593955</v>
+        <v>502.1435172428236</v>
       </c>
       <c r="R21">
-        <v>27.33494681593955</v>
+        <v>3012.861103456941</v>
       </c>
       <c r="S21">
-        <v>0.006254809043544023</v>
+        <v>0.07566220662680312</v>
       </c>
       <c r="T21">
-        <v>0.006254809043544023</v>
+        <v>0.06070412275789283</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>20.472042</v>
+      </c>
+      <c r="H22">
+        <v>40.944084</v>
+      </c>
+      <c r="I22">
+        <v>0.01110351945704208</v>
+      </c>
+      <c r="J22">
+        <v>0.00742984544919738</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.1853783333333333</v>
+      </c>
+      <c r="N22">
+        <v>0.5561349999999999</v>
+      </c>
+      <c r="O22">
+        <v>0.05150040234182901</v>
+      </c>
+      <c r="P22">
+        <v>0.06174910743679608</v>
+      </c>
+      <c r="Q22">
+        <v>3.79507302589</v>
+      </c>
+      <c r="R22">
+        <v>22.77043815534</v>
+      </c>
+      <c r="S22">
+        <v>0.0005718357194479939</v>
+      </c>
+      <c r="T22">
+        <v>0.0004587863248812794</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>20.472042</v>
+      </c>
+      <c r="H23">
+        <v>40.944084</v>
+      </c>
+      <c r="I23">
+        <v>0.01110351945704208</v>
+      </c>
+      <c r="J23">
+        <v>0.00742984544919738</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1.210201666666667</v>
+      </c>
+      <c r="N23">
+        <v>3.630605</v>
+      </c>
+      <c r="O23">
+        <v>0.3362090468038446</v>
+      </c>
+      <c r="P23">
+        <v>0.4031154633417589</v>
+      </c>
+      <c r="Q23">
+        <v>24.77529934847</v>
+      </c>
+      <c r="R23">
+        <v>148.65179609082</v>
+      </c>
+      <c r="S23">
+        <v>0.00373310369282006</v>
+      </c>
+      <c r="T23">
+        <v>0.00299508559081086</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>20.472042</v>
+      </c>
+      <c r="H24">
+        <v>40.944084</v>
+      </c>
+      <c r="I24">
+        <v>0.01110351945704208</v>
+      </c>
+      <c r="J24">
+        <v>0.00742984544919738</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.167083</v>
+      </c>
+      <c r="N24">
+        <v>0.5012489999999999</v>
+      </c>
+      <c r="O24">
+        <v>0.04641773161811331</v>
+      </c>
+      <c r="P24">
+        <v>0.05565497289972147</v>
+      </c>
+      <c r="Q24">
+        <v>3.420530193486</v>
+      </c>
+      <c r="R24">
+        <v>20.523181160916</v>
+      </c>
+      <c r="S24">
+        <v>0.0005154001861734786</v>
+      </c>
+      <c r="T24">
+        <v>0.000413507847124199</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>20.472042</v>
+      </c>
+      <c r="H25">
+        <v>40.944084</v>
+      </c>
+      <c r="I25">
+        <v>0.01110351945704208</v>
+      </c>
+      <c r="J25">
+        <v>0.00742984544919738</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.2445996666666667</v>
+      </c>
+      <c r="N25">
+        <v>0.7337990000000001</v>
+      </c>
+      <c r="O25">
+        <v>0.06795282393309501</v>
+      </c>
+      <c r="P25">
+        <v>0.08147560086672037</v>
+      </c>
+      <c r="Q25">
+        <v>5.007454649186001</v>
+      </c>
+      <c r="R25">
+        <v>30.04472789511601</v>
+      </c>
+      <c r="S25">
+        <v>0.0007545155027020753</v>
+      </c>
+      <c r="T25">
+        <v>0.0006053511223202244</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>20.472042</v>
+      </c>
+      <c r="H26">
+        <v>40.944084</v>
+      </c>
+      <c r="I26">
+        <v>0.01110351945704208</v>
+      </c>
+      <c r="J26">
+        <v>0.00742984544919738</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.7922885</v>
+      </c>
+      <c r="N26">
+        <v>3.584577</v>
+      </c>
+      <c r="O26">
+        <v>0.4979199953031181</v>
+      </c>
+      <c r="P26">
+        <v>0.3980048554550032</v>
+      </c>
+      <c r="Q26">
+        <v>36.691805448117</v>
+      </c>
+      <c r="R26">
+        <v>146.767221792468</v>
+      </c>
+      <c r="S26">
+        <v>0.005528664355898474</v>
+      </c>
+      <c r="T26">
+        <v>0.002957114564060817</v>
       </c>
     </row>
   </sheetData>
